--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE82BDA4-D80A-4B93-A650-6A0BD8F35367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B3521-4600-4536-88C1-58F8EE7F5087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -198,6 +198,28 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>ヌス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー{0}のターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}/{1}ターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順番決め</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンバンギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードを出してね</t>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -559,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -724,20 +746,42 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3">
         <v>100</v>
       </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3">
-        <v>200</v>
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B3521-4600-4536-88C1-58F8EE7F5087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543FF7C-FF8B-4F92-9E75-A528D9B49866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -221,6 +221,35 @@
     <rPh sb="4" eb="5">
       <t>ダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを{0}失った！</t>
+    <rPh sb="7" eb="8">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを{0}獲得した！</t>
+    <rPh sb="7" eb="9">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターカードを獲得した！</t>
+    <rPh sb="7" eb="9">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リシャッフル！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロー！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -296,11 +325,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -581,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -746,37 +776,83 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>100</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>101</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>103</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3">
+        <v>107</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543FF7C-FF8B-4F92-9E75-A528D9B49866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043DCFD9-E8DD-499C-A331-3258F3536365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -250,6 +250,13 @@
   </si>
   <si>
     <t>ドロー！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイン不足！</t>
+    <rPh sb="3" eb="5">
+      <t>ブソク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -614,7 +621,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -854,6 +861,9 @@
       <c r="A32" s="3">
         <v>109</v>
       </c>
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043DCFD9-E8DD-499C-A331-3258F3536365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4C776-2F4A-42FF-A497-B7FD92C8BD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11610" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -256,6 +256,45 @@
     <t>コイン不足！</t>
     <rPh sb="3" eb="5">
       <t>ブソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターマス到着！</t>
+    <rPh sb="5" eb="7">
+      <t>トウチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラッキーマス！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンラッキーマス！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捨てるカードを選んでね！</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを{0}枚奪った！</t>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウバ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -618,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -865,6 +904,54 @@
         <v>22</v>
       </c>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
+        <v>110</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3">
+        <v>111</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <v>112</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3">
+        <v>113</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3">
+        <v>114</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3">
+        <v>115</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4C776-2F4A-42FF-A497-B7FD92C8BD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC31DBC-9015-4058-A964-065F235495A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="-10995" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -296,6 +296,14 @@
     <rPh sb="8" eb="9">
       <t>ウバ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}マス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}コイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -657,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -881,75 +889,91 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>107</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>108</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>109</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>110</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>111</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>112</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>113</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>114</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>115</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3">
+        <v>200</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3">
+        <v>201</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Droad\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC31DBC-9015-4058-A964-065F235495A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA8A2F-0C3D-4537-8475-3C3C1C7EE470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="-10995" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -305,6 +305,101 @@
   <si>
     <t>{0}コイン</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロンズ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロンズ2</t>
+  </si>
+  <si>
+    <t>ブロンズ3</t>
+  </si>
+  <si>
+    <t>ブロンズ4</t>
+  </si>
+  <si>
+    <t>ブロンズ5</t>
+  </si>
+  <si>
+    <t>ブロンズ6</t>
+  </si>
+  <si>
+    <t>シルバー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シルバー2</t>
+  </si>
+  <si>
+    <t>シルバー3</t>
+  </si>
+  <si>
+    <t>シルバー4</t>
+  </si>
+  <si>
+    <t>シルバー5</t>
+  </si>
+  <si>
+    <t>シルバー6</t>
+  </si>
+  <si>
+    <t>ゴールド1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールド2</t>
+  </si>
+  <si>
+    <t>ゴールド3</t>
+  </si>
+  <si>
+    <t>ゴールド4</t>
+  </si>
+  <si>
+    <t>ゴールド5</t>
+  </si>
+  <si>
+    <t>ゴールド6</t>
+  </si>
+  <si>
+    <t>レジェンド1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジェンド2</t>
+  </si>
+  <si>
+    <t>レジェンド3</t>
+  </si>
+  <si>
+    <t>レジェンド4</t>
+  </si>
+  <si>
+    <t>レジェンド5</t>
+  </si>
+  <si>
+    <t>レジェンド6</t>
+  </si>
+  <si>
+    <t>スター1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スター2</t>
+  </si>
+  <si>
+    <t>スター3</t>
+  </si>
+  <si>
+    <t>スター4</t>
+  </si>
+  <si>
+    <t>スター5</t>
+  </si>
+  <si>
+    <t>スター6</t>
   </si>
 </sst>
 </file>
@@ -341,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -364,26 +459,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -833,7 +916,7 @@
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -841,7 +924,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -849,7 +932,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -857,7 +940,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -865,7 +948,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -873,7 +956,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>105</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -881,7 +964,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -889,74 +972,74 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>107</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>108</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>109</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>110</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>111</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>112</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>113</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>114</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>115</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -974,6 +1057,246 @@
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3">
+        <v>300</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>301</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3">
+        <v>302</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>303</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3">
+        <v>304</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>305</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>306</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>307</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>308</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>309</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>310</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>311</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>312</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>313</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>314</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>315</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>316</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>317</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>318</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>319</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>320</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>321</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>322</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>323</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>324</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>325</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>326</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>327</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>328</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>329</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA8A2F-0C3D-4537-8475-3C3C1C7EE470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D56A41-FF4F-4727-87C1-9EF938F96E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="2850" windowWidth="11895" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -400,6 +400,55 @@
   </si>
   <si>
     <t>スター6</t>
+  </si>
+  <si>
+    <t>デッキからカードを{0}枚捨てた</t>
+    <rPh sb="12" eb="13">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札をすべて捨てた</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通り過ぎなかったので{0}コイン獲得！</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通ったマスにプレイヤーがいない場合、コインを{0}枚獲得。</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -748,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -859,7 +908,9 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
@@ -1045,257 +1096,281 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3">
-        <v>300</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>118</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2">
-        <v>301</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>32</v>
+      <c r="A42" s="3">
+        <v>200</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3">
+        <v>201</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3">
+        <v>300</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>301</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3">
         <v>302</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
-        <v>303</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3">
-        <v>304</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
-        <v>305</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2">
-        <v>307</v>
+      <c r="A48" s="3">
+        <v>304</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>318</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>49</v>
+        <v>315</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>319</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>50</v>
+        <v>316</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>320</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>51</v>
+        <v>317</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
+        <v>326</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>327</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>328</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>329</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D56A41-FF4F-4727-87C1-9EF938F96E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0E4D74-445B-4E21-A71C-8EE5FED919F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="2850" windowWidth="11895" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
+    <sheet name="reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -71,382 +72,646 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>デッキの上から{0}枚捨てる。</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキの上から1枚捨て、その効果を発動させる。</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のマスの効果発動後、追加で{0}回発動する。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ハツドウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー{0}のターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}/{1}ターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順番決め</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンバンギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードを出してね</t>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを{0}失った！</t>
+    <rPh sb="7" eb="8">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを{0}獲得した！</t>
+    <rPh sb="7" eb="9">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターカードを獲得した！</t>
+    <rPh sb="7" eb="9">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リシャッフル！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロー！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイン不足！</t>
+    <rPh sb="3" eb="5">
+      <t>ブソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターマス到着！</t>
+    <rPh sb="5" eb="7">
+      <t>トウチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラッキーマス！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンラッキーマス！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捨てるカードを選んでね！</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}マス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}コイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロンズ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロンズ2</t>
+  </si>
+  <si>
+    <t>ブロンズ3</t>
+  </si>
+  <si>
+    <t>ブロンズ4</t>
+  </si>
+  <si>
+    <t>ブロンズ5</t>
+  </si>
+  <si>
+    <t>ブロンズ6</t>
+  </si>
+  <si>
+    <t>シルバー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シルバー2</t>
+  </si>
+  <si>
+    <t>シルバー3</t>
+  </si>
+  <si>
+    <t>シルバー4</t>
+  </si>
+  <si>
+    <t>シルバー5</t>
+  </si>
+  <si>
+    <t>シルバー6</t>
+  </si>
+  <si>
+    <t>ゴールド1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールド2</t>
+  </si>
+  <si>
+    <t>ゴールド3</t>
+  </si>
+  <si>
+    <t>ゴールド4</t>
+  </si>
+  <si>
+    <t>ゴールド5</t>
+  </si>
+  <si>
+    <t>ゴールド6</t>
+  </si>
+  <si>
+    <t>レジェンド1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジェンド2</t>
+  </si>
+  <si>
+    <t>レジェンド3</t>
+  </si>
+  <si>
+    <t>レジェンド4</t>
+  </si>
+  <si>
+    <t>レジェンド5</t>
+  </si>
+  <si>
+    <t>レジェンド6</t>
+  </si>
+  <si>
+    <t>スター1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スター2</t>
+  </si>
+  <si>
+    <t>スター3</t>
+  </si>
+  <si>
+    <t>スター4</t>
+  </si>
+  <si>
+    <t>スター5</t>
+  </si>
+  <si>
+    <t>スター6</t>
+  </si>
+  <si>
+    <t>デッキからカードを{0}枚捨てた</t>
+    <rPh sb="12" eb="13">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札をすべて捨てた</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通り過ぎなかったので{0}コイン獲得！</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>次のマスのイベントを1回無効化する。</t>
     <rPh sb="0" eb="1">
       <t>ツギ</t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="8" eb="9">
       <t>カイ</t>
     </rPh>
-    <rPh sb="12" eb="15">
+    <rPh sb="9" eb="12">
       <t>ムコウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>デッキの上から{0}枚捨てる。</t>
-    <rPh sb="4" eb="5">
-      <t>ウエ</t>
-    </rPh>
+    <t>次のマスのイベントを{0}回発動させる。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通過マスのプレイヤーの手札をランダムに{0}枚捨てる。</t>
+    <rPh sb="0" eb="2">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通過したプレイヤーの手札を捨てた！</t>
+    <rPh sb="0" eb="2">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターカードを{0}枚盗んだ！</t>
     <rPh sb="10" eb="11">
       <t>マイ</t>
     </rPh>
     <rPh sb="11" eb="12">
+      <t>ヌス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを{0}枚盗んだ！</t>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヌス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進むマス数を選んでね！</t>
+    <rPh sb="0" eb="1">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー{0}と手札を交換した！</t>
+    <rPh sb="9" eb="11">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この移動によって通過するプレイヤーからコインを{0}枚ずつ盗む。</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヌス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この移動によって通過するプレイヤーの手札からスターカードを{0}枚ずつ盗む。</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヌス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この移動によって通過する初めてのプレイヤーと手札を交換する。</t>
+    <rPh sb="12" eb="13">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードのマス数を1～3から選んだ数にする。</t>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードのマス数を4～6から選んだ数にする。</t>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札を1枚捨て、そのマス数の分をこの移動に追加する。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マイス</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捨て札から1枚選び、その効果を発動させる。</t>
+    <rPh sb="0" eb="1">
       <t>ス</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デッキの上から1枚捨て、その効果を発動させる。</t>
+    <rPh sb="2" eb="3">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキに戻すカードを選んでね！</t>
     <rPh sb="4" eb="5">
-      <t>ウエ</t>
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札がありません</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捨て札がありません</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札を1枚選び、その効果を発動させる。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発動するカードを選んでね！</t>
+    <rPh sb="0" eb="2">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0~99</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バナーテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100~199</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200~299</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他UIテキスト</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300~399</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この移動によって通過するプレイヤーがいない場合、コインを{0}枚獲得する。</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札にこれと同じマス数のカードがあるなら、コインを{0}枚獲得する。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捨て札から{0}枚選択する。それらをデッキに戻しシャッフルする。</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フダ</t>
     </rPh>
     <rPh sb="8" eb="9">
       <t>マイ</t>
     </rPh>
-    <rPh sb="9" eb="10">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハツドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このカードの進行マス数を1~3のうちから選択する。</t>
-    <rPh sb="6" eb="8">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="9" eb="11">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このカードの進行マス数を4~6のうちから選択する。</t>
-    <rPh sb="6" eb="8">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のマスの効果発動後、追加で{0}回発動する。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ハツドウゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハツドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通ったマスのプレイヤーからコインを{0}枚ずつ盗む。</t>
-    <rPh sb="0" eb="1">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヌス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通ったマスのプレイヤーの手札から勝ち点が1以上のカードを1枚ずつ盗む。</t>
-    <rPh sb="0" eb="1">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テフダ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヌス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー{0}のターン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{0}/{1}ターン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>順番決め</t>
-    <rPh sb="0" eb="3">
-      <t>ジュンバンギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カードを出してね</t>
-    <rPh sb="4" eb="5">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コインを{0}失った！</t>
-    <rPh sb="7" eb="8">
-      <t>ウシナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コインを{0}獲得した！</t>
-    <rPh sb="7" eb="9">
-      <t>カクトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スターカードを獲得した！</t>
-    <rPh sb="7" eb="9">
-      <t>カクトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リシャッフル！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドロー！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コイン不足！</t>
-    <rPh sb="3" eb="5">
-      <t>ブソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ショップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スターマス到着！</t>
-    <rPh sb="5" eb="7">
-      <t>トウチャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラッキーマス！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アンラッキーマス！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>捨てるカードを選んでね！</t>
-    <rPh sb="0" eb="1">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コインを{0}枚奪った！</t>
-    <rPh sb="7" eb="8">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ウバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{0}マス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{0}コイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロンズ1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロンズ2</t>
-  </si>
-  <si>
-    <t>ブロンズ3</t>
-  </si>
-  <si>
-    <t>ブロンズ4</t>
-  </si>
-  <si>
-    <t>ブロンズ5</t>
-  </si>
-  <si>
-    <t>ブロンズ6</t>
-  </si>
-  <si>
-    <t>シルバー1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シルバー2</t>
-  </si>
-  <si>
-    <t>シルバー3</t>
-  </si>
-  <si>
-    <t>シルバー4</t>
-  </si>
-  <si>
-    <t>シルバー5</t>
-  </si>
-  <si>
-    <t>シルバー6</t>
-  </si>
-  <si>
-    <t>ゴールド1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴールド2</t>
-  </si>
-  <si>
-    <t>ゴールド3</t>
-  </si>
-  <si>
-    <t>ゴールド4</t>
-  </si>
-  <si>
-    <t>ゴールド5</t>
-  </si>
-  <si>
-    <t>ゴールド6</t>
-  </si>
-  <si>
-    <t>レジェンド1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レジェンド2</t>
-  </si>
-  <si>
-    <t>レジェンド3</t>
-  </si>
-  <si>
-    <t>レジェンド4</t>
-  </si>
-  <si>
-    <t>レジェンド5</t>
-  </si>
-  <si>
-    <t>レジェンド6</t>
-  </si>
-  <si>
-    <t>スター1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スター2</t>
-  </si>
-  <si>
-    <t>スター3</t>
-  </si>
-  <si>
-    <t>スター4</t>
-  </si>
-  <si>
-    <t>スター5</t>
-  </si>
-  <si>
-    <t>スター6</t>
-  </si>
-  <si>
-    <t>デッキからカードを{0}枚捨てた</t>
-    <rPh sb="12" eb="13">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手札をすべて捨てた</t>
-    <rPh sb="0" eb="2">
-      <t>テフダ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通り過ぎなかったので{0}コイン獲得！</t>
-    <rPh sb="0" eb="1">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通ったマスにプレイヤーがいない場合、コインを{0}枚獲得。</t>
-    <rPh sb="0" eb="1">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクトク</t>
+    <rPh sb="22" eb="23">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -797,15 +1062,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="71.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -829,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -845,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -853,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -861,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -877,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -885,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -893,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -901,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -909,56 +1175,72 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
@@ -971,7 +1253,7 @@
         <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -979,7 +1261,7 @@
         <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -987,7 +1269,7 @@
         <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -995,7 +1277,7 @@
         <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1003,7 +1285,7 @@
         <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1011,7 +1293,7 @@
         <v>105</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1019,7 +1301,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1027,7 +1309,7 @@
         <v>107</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1035,7 +1317,7 @@
         <v>108</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1043,7 +1325,7 @@
         <v>109</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1051,7 +1333,7 @@
         <v>110</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1059,7 +1341,7 @@
         <v>111</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1067,7 +1349,7 @@
         <v>112</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1075,7 +1357,7 @@
         <v>113</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1083,7 +1365,7 @@
         <v>114</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1091,7 +1373,7 @@
         <v>115</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1099,7 +1381,7 @@
         <v>116</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1107,7 +1389,7 @@
         <v>117</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1115,263 +1397,327 @@
         <v>118</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3">
-        <v>300</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2">
-        <v>301</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>32</v>
+      <c r="A45" s="3">
+        <v>122</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3">
-        <v>302</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>33</v>
+        <v>123</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2">
-        <v>303</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>34</v>
+      <c r="A47" s="3">
+        <v>124</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3">
-        <v>304</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>35</v>
+        <v>125</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2">
-        <v>305</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>36</v>
+      <c r="A49" s="3">
+        <v>126</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2">
-        <v>306</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>37</v>
+      <c r="A50" s="3">
+        <v>200</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2">
-        <v>307</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>38</v>
+      <c r="A51" s="3">
+        <v>201</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2">
-        <v>308</v>
+      <c r="A52" s="3">
+        <v>300</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>310</v>
+      <c r="A54" s="3">
+        <v>302</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="2">
-        <v>312</v>
+      <c r="A56" s="3">
+        <v>304</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>318</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>49</v>
+        <v>310</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>319</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>50</v>
+        <v>311</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>320</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>51</v>
+        <v>312</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>321</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>52</v>
+        <v>313</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>322</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>53</v>
+        <v>314</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>323</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>54</v>
+        <v>315</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>324</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>55</v>
+        <v>316</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>325</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>56</v>
+        <v>317</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
+        <v>321</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>322</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>323</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>324</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>325</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>326</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>327</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>328</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>329</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>60</v>
+      <c r="B81" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1379,4 +1725,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1E8EB3-2BC6-4372-A5DF-322E9D4F70FF}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0E4D74-445B-4E21-A71C-8EE5FED919F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66BFD9C-8555-4421-A41F-9C8526059514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="3780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -712,6 +712,37 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを半分(端数切り捨て)失う。失ったコインの数をこの移動に追加する。</t>
+    <rPh sb="4" eb="6">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウシナ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウシナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1064,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1246,7 +1277,9 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3">

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66BFD9C-8555-4421-A41F-9C8526059514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA5C98F-0E0C-48DB-9DF5-1C2880AD9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="3780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -221,82 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロンズ1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロンズ2</t>
-  </si>
-  <si>
-    <t>ブロンズ3</t>
-  </si>
-  <si>
-    <t>ブロンズ4</t>
-  </si>
-  <si>
-    <t>ブロンズ5</t>
-  </si>
-  <si>
-    <t>ブロンズ6</t>
-  </si>
-  <si>
-    <t>シルバー1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シルバー2</t>
-  </si>
-  <si>
-    <t>シルバー3</t>
-  </si>
-  <si>
-    <t>シルバー4</t>
-  </si>
-  <si>
-    <t>シルバー5</t>
-  </si>
-  <si>
-    <t>シルバー6</t>
-  </si>
-  <si>
-    <t>ゴールド1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴールド2</t>
-  </si>
-  <si>
-    <t>ゴールド3</t>
-  </si>
-  <si>
-    <t>ゴールド4</t>
-  </si>
-  <si>
-    <t>ゴールド5</t>
-  </si>
-  <si>
-    <t>ゴールド6</t>
-  </si>
-  <si>
-    <t>レジェンド1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レジェンド2</t>
-  </si>
-  <si>
-    <t>レジェンド3</t>
-  </si>
-  <si>
-    <t>レジェンド4</t>
-  </si>
-  <si>
-    <t>レジェンド5</t>
-  </si>
-  <si>
-    <t>レジェンド6</t>
-  </si>
-  <si>
     <t>スター1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -743,6 +667,208 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身軽</t>
+    <rPh sb="0" eb="2">
+      <t>ミガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕切り直し</t>
+    <rPh sb="0" eb="2">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己防衛</t>
+    <rPh sb="0" eb="4">
+      <t>ジコボウエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後の切り札</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忍び足</t>
+    <rPh sb="0" eb="1">
+      <t>シノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同調</t>
+    <rPh sb="0" eb="2">
+      <t>ドウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直感</t>
+    <rPh sb="0" eb="2">
+      <t>チョッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予感</t>
+    <rPh sb="0" eb="2">
+      <t>ヨカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}を入手</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リメンバーミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジャブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターにあこがれて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まやかし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解放</t>
+    <rPh sb="0" eb="2">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>査定</t>
+    <rPh sb="0" eb="2">
+      <t>サテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギアチェンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着実な一歩</t>
+    <rPh sb="0" eb="2">
+      <t>チャクジツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着実な二歩</t>
+    <rPh sb="0" eb="2">
+      <t>チャクジツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着実な三歩</t>
+    <rPh sb="0" eb="2">
+      <t>チャクジツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着実な四歩</t>
+    <rPh sb="0" eb="2">
+      <t>チャクジツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着実な五歩</t>
+    <rPh sb="0" eb="2">
+      <t>チャクジツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着実な六歩</t>
+    <rPh sb="0" eb="2">
+      <t>チャクジツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在感</t>
+    <rPh sb="0" eb="3">
+      <t>ソンザイカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -808,11 +934,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1093,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1126,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1150,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1182,7 +1311,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1190,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1198,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1206,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1214,7 +1343,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1222,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1230,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1238,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1246,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1254,7 +1383,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1262,7 +1391,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1270,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1278,7 +1407,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1406,7 +1535,7 @@
         <v>115</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1414,7 +1543,7 @@
         <v>116</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1422,7 +1551,7 @@
         <v>117</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1430,7 +1559,7 @@
         <v>118</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1438,7 +1567,7 @@
         <v>119</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1446,7 +1575,7 @@
         <v>120</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1454,7 +1583,7 @@
         <v>121</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1462,7 +1591,7 @@
         <v>122</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1470,7 +1599,7 @@
         <v>123</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1478,7 +1607,7 @@
         <v>124</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1486,7 +1615,7 @@
         <v>125</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1494,263 +1623,271 @@
         <v>126</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3">
-        <v>200</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>23</v>
+        <v>127</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3">
+        <v>201</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3">
         <v>300</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+      <c r="B53" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>301</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3">
+      <c r="B54" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3">
         <v>302</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="B55" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>303</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3">
+      <c r="B56" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3">
         <v>304</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
-        <v>305</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>30</v>
+      <c r="B57" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>306</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>31</v>
+        <v>305</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>314</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>313</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>318</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>43</v>
+        <v>317</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
+        <v>328</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>329</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>54</v>
+      <c r="B82" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1772,34 +1909,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Droad\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA5C98F-0E0C-48DB-9DF5-1C2880AD9540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8D369D-F32C-457F-B49D-D708DD961991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,37 +640,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コインを半分(端数切り捨て)失う。失ったコインの数をこの移動に追加する。</t>
-    <rPh sb="4" eb="6">
-      <t>ハンブン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハスウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウシナ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウシナ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>身軽</t>
     <rPh sb="0" eb="2">
       <t>ミガル</t>
@@ -869,6 +838,34 @@
     <t>存在感</t>
     <rPh sb="0" eb="3">
       <t>ソンザイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを半分(端数切り捨て)失う。この移動を失ったコインの数にする。</t>
+    <rPh sb="4" eb="6">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウシナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウシナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1224,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1407,7 +1404,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1631,7 +1628,7 @@
         <v>127</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1655,7 +1652,7 @@
         <v>300</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1663,7 +1660,7 @@
         <v>301</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1671,7 +1668,7 @@
         <v>302</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1679,7 +1676,7 @@
         <v>303</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1687,7 +1684,7 @@
         <v>304</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1695,7 +1692,7 @@
         <v>305</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1703,7 +1700,7 @@
         <v>306</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1711,7 +1708,7 @@
         <v>307</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1719,7 +1716,7 @@
         <v>308</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1727,7 +1724,7 @@
         <v>309</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1735,7 +1732,7 @@
         <v>310</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1743,7 +1740,7 @@
         <v>311</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1751,7 +1748,7 @@
         <v>312</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1759,7 +1756,7 @@
         <v>313</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1767,7 +1764,7 @@
         <v>314</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1775,7 +1772,7 @@
         <v>315</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1783,7 +1780,7 @@
         <v>316</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1791,7 +1788,7 @@
         <v>317</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1799,7 +1796,7 @@
         <v>318</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1807,7 +1804,7 @@
         <v>319</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1815,7 +1812,7 @@
         <v>320</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1823,7 +1820,7 @@
         <v>321</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1831,7 +1828,7 @@
         <v>322</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1839,7 +1836,7 @@
         <v>323</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:2">

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8D369D-F32C-457F-B49D-D708DD961991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EECB95F-FB25-44D0-9B7F-37902DBA958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,25 +387,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この移動によって通過するプレイヤーの手札からスターカードを{0}枚ずつ盗む。</t>
-    <rPh sb="2" eb="4">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツウカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テフダ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ヌス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>この移動によって通過する初めてのプレイヤーと手札を交換する。</t>
     <rPh sb="12" eb="13">
       <t>ハジ</t>
@@ -866,6 +847,22 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この移動によって通過するプレイヤーからスターカードを{0}枚ずつ盗む。</t>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヌス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1222,7 +1219,7 @@
   <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1308,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1316,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1324,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1332,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1356,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1364,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1372,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1380,7 +1377,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1388,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1396,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1404,7 +1401,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1596,7 +1593,7 @@
         <v>123</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1604,7 +1601,7 @@
         <v>124</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1612,7 +1609,7 @@
         <v>125</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1620,7 +1617,7 @@
         <v>126</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1628,7 +1625,7 @@
         <v>127</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1652,7 +1649,7 @@
         <v>300</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1660,7 +1657,7 @@
         <v>301</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1668,7 +1665,7 @@
         <v>302</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1676,7 +1673,7 @@
         <v>303</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1684,7 +1681,7 @@
         <v>304</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1692,7 +1689,7 @@
         <v>305</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1700,7 +1697,7 @@
         <v>306</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1708,7 +1705,7 @@
         <v>307</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1716,7 +1713,7 @@
         <v>308</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1724,7 +1721,7 @@
         <v>309</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1732,7 +1729,7 @@
         <v>310</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1740,7 +1737,7 @@
         <v>311</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1748,7 +1745,7 @@
         <v>312</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1756,7 +1753,7 @@
         <v>313</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1764,7 +1761,7 @@
         <v>314</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1772,7 +1769,7 @@
         <v>315</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1780,7 +1777,7 @@
         <v>316</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1788,7 +1785,7 @@
         <v>317</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1796,7 +1793,7 @@
         <v>318</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1804,7 +1801,7 @@
         <v>319</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1812,7 +1809,7 @@
         <v>320</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1820,7 +1817,7 @@
         <v>321</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1828,7 +1825,7 @@
         <v>322</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1836,7 +1833,7 @@
         <v>323</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1906,34 +1903,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EECB95F-FB25-44D0-9B7F-37902DBA958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAF85B3-782B-4529-A4D7-7AE4C59F3DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -863,6 +863,20 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>ヌス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了！</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}の勝ち！</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1216,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1630,257 +1644,273 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3">
-        <v>200</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>23</v>
+        <v>128</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3">
-        <v>201</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>24</v>
+        <v>129</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3">
-        <v>300</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>82</v>
+        <v>200</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>301</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>83</v>
+      <c r="A54" s="3">
+        <v>201</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2">
-        <v>306</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>79</v>
+      <c r="A59" s="3">
+        <v>304</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>307</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>305</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>313</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>75</v>
+        <v>311</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>315</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>313</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>318</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>76</v>
+        <v>316</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>319</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>68</v>
+        <v>317</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
+        <v>327</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>328</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>329</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAF85B3-782B-4529-A4D7-7AE4C59F3DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847D894-B9F3-406D-877C-949865A1EB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -530,10 +530,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カードテキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バナーテキスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -877,6 +873,293 @@
     <t>{0}の勝ち！</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード効果テキスト</t>
+    <rPh sb="3" eb="5">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400~499</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード条件テキスト</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインが{0}枚以上。</t>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインが{0}枚以下。</t>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のスターカードが{0}枚以上。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のカードのマス数がすべて奇数。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のカードのマス数がすべて偶数。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>グウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のカードのマス数がすべて同じ。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のカードのマス数がすべて{0}以下。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のカードのマス数がすべて{0}以上。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のカードのレアリティがすべて同じ。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキが{0}枚以上。</t>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキが{0}枚以下。</t>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捨て札が{0}枚以上。</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捨て札が{0}枚以下。</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位が1位でない。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位が最下位。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のカードの合計マス数が{0}以下。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のカードの合計マス数が{0}以上。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札のカードの合計マス数が{0}。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}%の確立</t>
+    <rPh sb="5" eb="7">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札にマス数が{0}のカードがある。</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持カードがシルバー以上。</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを{0}枚失う。</t>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持スターカードを{0}枚失う。</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウシナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1230,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1335,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1343,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1399,7 +1682,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1407,7 +1690,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1415,7 +1698,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1639,7 +1922,7 @@
         <v>127</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1647,7 +1930,7 @@
         <v>128</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1655,7 +1938,7 @@
         <v>129</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1679,7 +1962,7 @@
         <v>300</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1687,7 +1970,7 @@
         <v>301</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1695,7 +1978,7 @@
         <v>302</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1703,7 +1986,7 @@
         <v>303</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1711,7 +1994,7 @@
         <v>304</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1719,7 +2002,7 @@
         <v>305</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1727,7 +2010,7 @@
         <v>306</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1735,7 +2018,7 @@
         <v>307</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1743,7 +2026,7 @@
         <v>308</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1751,7 +2034,7 @@
         <v>309</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1759,7 +2042,7 @@
         <v>310</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1767,7 +2050,7 @@
         <v>311</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1775,7 +2058,7 @@
         <v>312</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1783,7 +2066,7 @@
         <v>313</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1791,7 +2074,7 @@
         <v>314</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1799,7 +2082,7 @@
         <v>315</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1807,7 +2090,7 @@
         <v>316</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1815,7 +2098,7 @@
         <v>317</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1823,7 +2106,7 @@
         <v>318</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1831,7 +2114,7 @@
         <v>319</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1839,7 +2122,7 @@
         <v>320</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1847,7 +2130,7 @@
         <v>321</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1855,7 +2138,7 @@
         <v>322</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1863,7 +2146,7 @@
         <v>323</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1912,6 +2195,190 @@
       </c>
       <c r="B84" s="3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3">
+        <v>400</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3">
+        <v>401</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3">
+        <v>402</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3">
+        <v>403</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3">
+        <v>404</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3">
+        <v>405</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3">
+        <v>406</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3">
+        <v>407</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="3">
+        <v>408</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="3">
+        <v>409</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3">
+        <v>410</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="3">
+        <v>411</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="3">
+        <v>412</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="3">
+        <v>413</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3">
+        <v>414</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3">
+        <v>415</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="3">
+        <v>416</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="3">
+        <v>417</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="3">
+        <v>418</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="3">
+        <v>419</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="3">
+        <v>420</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="3">
+        <v>421</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="3">
+        <v>422</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1923,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1E8EB3-2BC6-4372-A5DF-322E9D4F70FF}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1936,31 +2403,39 @@
         <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
-        <v>60</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847D894-B9F3-406D-877C-949865A1EB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FE46BD-EF6D-4646-982C-0C8F55BFF913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1160,6 +1160,26 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位が1位。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位が最下位でない。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1513,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2306,7 +2326,7 @@
         <v>413</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2314,7 +2334,7 @@
         <v>414</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2322,7 +2342,7 @@
         <v>415</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2330,7 +2350,7 @@
         <v>416</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2338,7 +2358,7 @@
         <v>417</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2346,7 +2366,7 @@
         <v>418</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2354,7 +2374,7 @@
         <v>419</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2362,7 +2382,7 @@
         <v>420</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2370,7 +2390,7 @@
         <v>421</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2378,6 +2398,22 @@
         <v>422</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="3">
+        <v>423</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="3">
+        <v>424</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>117</v>
       </c>
     </row>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d80298dd939f2595/デスクトップ/Droad/Assets/Resources/MasterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FE46BD-EF6D-4646-982C-0C8F55BFF913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E0FE46BD-EF6D-4646-982C-0C8F55BFF913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67A6D66-1A43-4096-A3C7-EB4025EA4692}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1180,6 +1180,20 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">条件 : </t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">効果 : </t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1245,11 +1259,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1533,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1722,7 +1735,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1730,7 +1743,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1738,7 +1751,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1746,7 +1759,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1754,7 +1767,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1762,7 +1775,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>105</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1770,7 +1783,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1778,167 +1791,167 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>107</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>108</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>109</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>110</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>111</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>112</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>113</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>114</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>115</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>116</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>117</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>118</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>119</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>120</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>121</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>122</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>123</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>124</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>125</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>126</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>127</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1946,7 +1959,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>128</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1954,7 +1967,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>129</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1962,458 +1975,474 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>200</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>201</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3">
-        <v>300</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>81</v>
+      <c r="A55" s="2">
+        <v>202</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>301</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>82</v>
+        <v>203</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="3">
-        <v>302</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>83</v>
+      <c r="A57" s="2">
+        <v>300</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>303</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>84</v>
+        <v>301</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3">
-        <v>304</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>85</v>
+      <c r="A59" s="2">
+        <v>302</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>305</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>86</v>
+        <v>303</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>306</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>304</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>307</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>305</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>313</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>74</v>
+        <v>311</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>318</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>316</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>319</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>67</v>
+        <v>317</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>320</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>63</v>
+        <v>318</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>321</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>64</v>
+        <v>319</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>322</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>73</v>
+        <v>320</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>323</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>69</v>
+        <v>321</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>324</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>25</v>
+        <v>322</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>325</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>26</v>
+        <v>323</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>326</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>27</v>
+        <v>324</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>327</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>28</v>
+        <v>325</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>328</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>29</v>
+        <v>326</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
+        <v>327</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
+        <v>328</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>329</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="3">
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>400</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="3">
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>401</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="3">
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>402</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="3">
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>403</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="3">
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>404</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="3">
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>405</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="3">
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>406</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="3">
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>407</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="3">
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>408</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="3">
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>409</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="3">
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>410</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="3">
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>411</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="3">
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>412</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="3">
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>413</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="3">
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>414</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="3">
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>415</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="3">
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>416</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="3">
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>417</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="3">
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>418</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="3">
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>419</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="3">
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>420</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="3">
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>421</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="3">
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>422</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="3">
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>423</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="3">
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>424</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>117</v>
       </c>
     </row>

--- a/Assets/Resources/MasterData/TextData.xlsx
+++ b/Assets/Resources/MasterData/TextData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d80298dd939f2595/デスクトップ/Droad/Assets/Resources/MasterData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E0FE46BD-EF6D-4646-982C-0C8F55BFF913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67A6D66-1A43-4096-A3C7-EB4025EA4692}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9993C2EF-48B3-47D3-9292-FCC5D5B2C121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -689,13 +689,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{0}を入手</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リメンバーミー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1194,6 +1187,113 @@
     <t xml:space="preserve">効果 : </t>
     <rPh sb="0" eb="2">
       <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件未達成</t>
+    <rPh sb="0" eb="5">
+      <t>ジョウケンミタッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のマス効果無効</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札を捨てた</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員リシャッフル！</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進む方向を選んでね！</t>
+    <rPh sb="0" eb="1">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のマス効果を{0}回繰り返す</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを半分失った！</t>
+    <rPh sb="4" eb="7">
+      <t>ハンブンウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}マス進む</t>
+    <rPh sb="5" eb="6">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}をプレゼント！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインが倍になった！</t>
+    <rPh sb="4" eb="5">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員コインを{0}枚失った！</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウシナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1546,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1651,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1731,7 +1831,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1955,7 +2055,7 @@
         <v>127</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1963,7 +2063,7 @@
         <v>128</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1971,479 +2071,567 @@
         <v>129</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>300</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>301</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>82</v>
+        <v>135</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>302</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>83</v>
+        <v>136</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>303</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>84</v>
+        <v>137</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>304</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>85</v>
+        <v>138</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>305</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>86</v>
+        <v>139</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>306</v>
+        <v>140</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>309</v>
+        <v>202</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>311</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>71</v>
+        <v>300</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>312</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>301</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>313</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>74</v>
+        <v>302</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>314</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>80</v>
+        <v>303</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>315</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>79</v>
+        <v>304</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>316</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>305</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>405</v>
+        <v>324</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>408</v>
+        <v>327</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>409</v>
+        <v>328</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>410</v>
+        <v>329</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>414</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>415</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>416</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>417</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
+        <v>418</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
+        <v>419</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
+        <v>420</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
+        <v>421</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>422</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
+        <v>423</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>424</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2656,7 @@
         <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2497,10 +2685,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
         <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
